--- a/Output_testing/R1_201907/Country/HKD/MN/MAURITIUS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MAURITIUS_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>127.818488</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>26.58201509751122</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>299.454238</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>54.23642066843891</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>256.134442</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>48.26535871326713</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>93.577206</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>40.9930694542903</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-34.02135132255393</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>17.974261</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.738051394166133</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>39.098276</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>7.081384316713958</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>45.78119</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>8.626897423151854</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>20.02712</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>8.773216857205657</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-31.11509705053172</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>27.435317</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.705637909744373</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>28.329403</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.130952323986596</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>28.753299</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.418202564201909</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>15.287524</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.696957089273747</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-4.512547234594022</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>27.186901</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.653975603564822</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>17.118807</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.100516539671804</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>22.204494</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.184161487960248</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>14.567979</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.381748296221225</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>12.57062043207615</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>23.43466</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>4.873633663426235</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>22.169467</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.015279751048554</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>18.357232</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.45919268234401</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>12.754878</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.587488899112881</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>26.33769422934804</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>22.027171</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.58092253506755</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>22.659676</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.104065208609701</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>21.705751</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.090179555609538</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>11.388846</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.989075599053644</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-5.432659528807637</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>8.088804</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.68220351698112</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>7.633608</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.382580448589145</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>4.958408</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.9343504875722004</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>5.015246</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.197012888035486</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>37.78454960124114</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>8.116334</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.687928845821143</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>4.311306</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.7808532195372192</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>8.494475</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.600678455246092</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>4.714855</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.065421556633224</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>4.666516451351876</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>9.176373</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.908381873727018</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>9.77969</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.771273582198978</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>11.466495</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.160718761746552</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>4.488562</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.966290100773987</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-37.41483983314387</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>24.157249</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>5.023908259909457</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>4.618816</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.8365486801563194</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>4.94804</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.9323967665683724</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>4.281427</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.875551129133667</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>83.8583645924364</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>185.430185</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>38.56334130008093</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>96.954295</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>17.56012526104881</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>107.875835</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>20.32786310233208</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>42.172032</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>18.47416813026618</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-39.43020196390082</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,517 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.934887</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>25.80647387406685</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.729028</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>37.37617855191162</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1.755544</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>27.635107970203</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.105328</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>32.36513672335376</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>17.38503397314857</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>4.09102753648952</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>0.8753536520409787</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>2.343806</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>36.89530531345817</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.826904</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>24.21259663836265</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>242.3749585955615</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.02594</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>28.31988658133031</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.554983</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>33.61386990447072</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.182773</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>18.61876407497671</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.748739</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>21.92384532474267</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>14.31321747388123</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>13.03781947307576</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>10.36913836873889</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.430578035464612</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>11.66878124468366</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>223.8654833885963</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF LEATHER OR OF COMPOSITION LEATHER, N.E.S.; SADDLERY AND HARNESS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.4232497231334558</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.998152189702759</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.1900171048451764</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.637874537250002</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>3.193183611644595</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>10.92557341462849</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>5.102706086619675</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.076238873428868</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.444842894124791</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>41.1441647597254</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.40818244152678</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.018345807710133</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.8817668898933442</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.6764795189478976</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-1.408270387914479</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>3.438969559586207</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>2.267761287466364</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>4.30163401172373</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.5400885048259522</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>88.31036242981112</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.295282724079716</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.2529880553915005</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>11.25353467208291</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>5.378494151338862</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>3.970587726006385</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.08418294667251897</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-98.5975404518115</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1810,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>127.818488</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>26.78380383962125</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>299.454238</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>54.6946815490935</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>256.134442</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>48.8501269937281</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>93.577206</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>41.61567215982368</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-34.02135132255393</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>17.974261</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>3.766427598378058</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>39.098276</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>7.141217199733087</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>45.78119</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.731418265974535</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>20.02712</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>8.906464467697914</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-31.11509705053172</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>27.186901</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.696895924721022</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>17.118807</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>3.126713796467936</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>22.204494</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>4.234855505029947</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>14.567979</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.478674284154157</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>12.57062043207615</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>26.409377</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.533969178970457</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>26.77442</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.890291035258883</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>27.570526</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.258268610294443</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>14.538785</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.465691123136998</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-5.315586923419636</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>23.038861</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>4.827692326577203</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>21.933415</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.006091737827103</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>18.288863</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.48806381970643</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>12.705534</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.650407403267557</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>26.28624414453537</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>21.092284</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.419795649480551</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>20.930648</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.822938471741284</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>19.950207</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.804916425496433</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>10.283518</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.573288004961867</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-7.368052965185456</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>8.088804</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.694973419128098</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>7.633608</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.394262313397657</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>4.958408</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.9456707914616083</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>5.015246</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.230381117992208</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>37.78454960124114</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>9.129448999999999</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.913036016979221</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>9.77969</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.786239639723697</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>11.466495</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.186897367449507</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>4.479922</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.992311730845882</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-37.53530954790811</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>24.157249</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>5.06204562927459</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>4.618816</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.8436169477549951</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>4.94804</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.9436933997734144</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>4.281427</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.904036998157622</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>83.8583645924364</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>9.217307</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.931446275734132</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>6.529724</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.192640241690195</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>6.972479</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.329795719589724</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>4.0736</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.811612136723314</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>18.0382743508996</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>183.110078</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>38.36991414113541</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>93.629924</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>17.10130706731166</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>106.051931</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>20.22629310149586</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>41.310157</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>18.3714605732388</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-41.04707054573851</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2268,479 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>2.407336</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>1.529383348806199</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>3.830984</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>6.66441120663957</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>11.063449</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>16.14307757245982</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>10.583085</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>25.32119109466867</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>9.744799</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>6.190882090436607</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>18.161014</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>31.59304899877893</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>21.056782</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>30.72471028269536</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>9.148077000000001</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>21.88777713358093</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-19.79267440080424</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>98.23015700000001</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>62.40573250531654</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>8.589028000000001</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>14.94154359750421</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>18.172475</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>26.5161138817187</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>7.633023</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>18.26284434198546</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-33.50370145351428</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.2842629620002934</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>4.009403</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>9.592936231593892</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2.536074</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.61117074930144</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1.951495</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.394836717590334</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.450213</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.116058107701285</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>1.863478</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.458575409600414</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1.930827</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.226656629247196</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>3.78108</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>6.577597798685858</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>3.148074</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>4.593468346610888</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>1.42841</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.417627522743669</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1.302288</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.115866810886795</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SUGARS, MOLASSES, AND HONEY</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>5.943442</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.775875585873934</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>3.804946</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>6.619115288150095</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>4.689456</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>6.842554431320391</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1.038403</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.484493018460802</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-53.58148807914012</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.1369683884880304</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>0.927378</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.218853534200249</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>5.179746</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>3.29069863261527</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>1.463205</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.545403426276656</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.4569094937579909</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>0.720064</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.722832061198744</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>216.01852055035</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>30.77024</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>19.5483691079145</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>15.902456</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>27.66404296637435</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>8.612416</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>12.56668689612924</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>3.141759</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>7.517002841080379</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-55.63818142692784</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
